--- a/Released/BOM/H15R00.xlsx
+++ b/Released/BOM/H15R00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hexabitz_Github\Hardware\H15R0x-Hardware\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E89A0-925E-4929-8A00-66254FCBFACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932E944-E521-430B-86D6-1D2085946293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
   <si>
     <t>Qty</t>
   </si>
@@ -214,9 +214,6 @@
     <t>C4, C7</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>Phoenix Contact</t>
   </si>
   <si>
@@ -226,15 +223,6 @@
     <t>https://octopart.com/grm188r71e104ka01d-murata-196239?r=sp&amp;s=9Sa0iYM-THq9pjXKXbxryA</t>
   </si>
   <si>
-    <t>Cap Tant Solid SMD 1210</t>
-  </si>
-  <si>
-    <t>CC1206ZKY5V8BB106</t>
-  </si>
-  <si>
-    <t>https://octopart.com/cc1206zky5v8bb106-yageo-42624311?r=sp&amp;s=EIqUUxkfRLaCHNQsufUkfg</t>
-  </si>
-  <si>
     <t>C16</t>
   </si>
   <si>
@@ -269,9 +257,6 @@
   </si>
   <si>
     <t>Terminal Block 10 A 160 V 3.5 mm 26 to 16 AWG 3 Screw Solder 2.5 kV PA</t>
-  </si>
-  <si>
-    <t>C13, C14, C18</t>
   </si>
   <si>
     <t>100nF 25V</t>
@@ -880,25 +865,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.26171875" customWidth="1"/>
-    <col min="2" max="2" width="21.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.47265625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="60.47265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5234375" customWidth="1"/>
-    <col min="6" max="6" width="20.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.5234375" customWidth="1"/>
-    <col min="8" max="8" width="6.26171875" customWidth="1"/>
+    <col min="1" max="1" width="6.265625" customWidth="1"/>
+    <col min="2" max="2" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.53125" customWidth="1"/>
+    <col min="6" max="6" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.53125" customWidth="1"/>
+    <col min="8" max="8" width="6.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -924,15 +909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -947,15 +932,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -964,13 +949,13 @@
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -993,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1016,53 +1001,53 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1070,13 +1055,13 @@
         <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>72</v>
@@ -1085,176 +1070,176 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1751248</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1">
-        <v>1751248</v>
+        <v>1751251</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1751251</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -1263,21 +1248,21 @@
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -1286,41 +1271,41 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>105</v>
@@ -1329,168 +1314,144 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{0DEDC461-3D97-42B5-91BC-449136AA4DBD}"/>
-    <hyperlink ref="G6" r:id="rId2" display="https://octopart.com/grm188r60j106me84d-murata-29304413?r=sp&amp;s=F9Unx6EgTSWzmA_eGoaEng" xr:uid="{6E450E17-99C7-4DD0-97D5-E09D8479D56E}"/>
-    <hyperlink ref="G8" r:id="rId3" xr:uid="{89AB94E9-E8AA-4F94-9DE3-FBA3FE4396BC}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{33D37C00-2E06-49A2-B614-4753E5185129}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{AF127029-5F24-4C16-9B66-AAD92B2D32D1}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{40ACB2A2-74C0-457D-ACF8-2DD32DFC6D36}"/>
-    <hyperlink ref="G24" r:id="rId7" xr:uid="{641180C9-92B3-4A32-8429-46CFF700BE2A}"/>
-    <hyperlink ref="G19" r:id="rId8" xr:uid="{FB4C831D-BC9F-4BB9-A443-335556E8BDD4}"/>
-    <hyperlink ref="G21" r:id="rId9" xr:uid="{2F4D7DEE-1C0A-4F7A-8CFE-C74109113CD9}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{0DEDC461-3D97-42B5-91BC-449136AA4DBD}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{89AB94E9-E8AA-4F94-9DE3-FBA3FE4396BC}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{33D37C00-2E06-49A2-B614-4753E5185129}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{AF127029-5F24-4C16-9B66-AAD92B2D32D1}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{40ACB2A2-74C0-457D-ACF8-2DD32DFC6D36}"/>
+    <hyperlink ref="G23" r:id="rId6" xr:uid="{641180C9-92B3-4A32-8429-46CFF700BE2A}"/>
+    <hyperlink ref="G18" r:id="rId7" xr:uid="{FB4C831D-BC9F-4BB9-A443-335556E8BDD4}"/>
+    <hyperlink ref="G20" r:id="rId8" xr:uid="{2F4D7DEE-1C0A-4F7A-8CFE-C74109113CD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1500,7 +1461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1512,7 +1473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
